--- a/data/trans_orig/P33_2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Habitat-trans_orig.xlsx
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>7.343733378927282</v>
+        <v>7.34373337892728</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>7.081648605645255</v>
+        <v>7.081648605645257</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>7.209303372276592</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.255467228669736</v>
+        <v>7.260794758575809</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.004385128849396</v>
+        <v>7.001205902520789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.153607562099415</v>
+        <v>7.146386535179827</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.428580835133591</v>
+        <v>7.426156468708053</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.162742728170027</v>
+        <v>7.161344932338994</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.274305367526914</v>
+        <v>7.267151520605905</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>7.448984450511353</v>
+        <v>7.448984450511355</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>7.297340165557502</v>
+        <v>7.297340165557503</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.373087758562547</v>
+        <v>7.373087758562549</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.373634466040919</v>
+        <v>7.374093051843101</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.22337349161648</v>
+        <v>7.229436189955742</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.324660926391801</v>
+        <v>7.320327766486463</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.525942623404152</v>
+        <v>7.531058846592388</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.363619111526045</v>
+        <v>7.36269777001394</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.423691956336784</v>
+        <v>7.425690969259566</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>7.428804207672925</v>
+        <v>7.428804207672922</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>7.337085394129577</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.382042652885297</v>
+        <v>7.3820426528853</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.328238457705838</v>
+        <v>7.327653072591249</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.243917201543471</v>
+        <v>7.24147913025304</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.316916076220894</v>
+        <v>7.315513789414728</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.539557285946292</v>
+        <v>7.536543557105863</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.426114089931604</v>
+        <v>7.415482398177542</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.447485352132855</v>
+        <v>7.455511067838136</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.313183796070883</v>
+        <v>7.313183796070884</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.280046648096421</v>
+        <v>7.280046648096422</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7.295671944188616</v>
+        <v>7.295671944188615</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.220564206420042</v>
+        <v>7.211624147537285</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.212392347718313</v>
+        <v>7.209122012262382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.234408936747454</v>
+        <v>7.227327803441199</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.403262153559527</v>
+        <v>7.403172400142326</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.357020474189144</v>
+        <v>7.361279025594512</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.350771532433459</v>
+        <v>7.353625808538768</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.337598406916213</v>
+        <v>7.341291238961391</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.218789721243707</v>
+        <v>7.216885907777121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.28753101966424</v>
+        <v>7.286301002268876</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.430677862132006</v>
+        <v>7.426649604740152</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.299776912567632</v>
+        <v>7.293277632111824</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.348131307935814</v>
+        <v>7.347672667390218</v>
       </c>
     </row>
     <row r="19">
